--- a/psp forms/Defect Recording log.xlsx
+++ b/psp forms/Defect Recording log.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
-    <sheet name="excel (24)" sheetId="1" r:id="rId1"/>
+    <sheet name="excel (34)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="excel__24" localSheetId="0">'excel (24)'!$A$1:$K$2</definedName>
+    <definedName name="excel__34" localSheetId="0">'excel (34)'!$A$1:$K$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -23,14 +23,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\jaher\Downloads\excel (24).iqy" name="excel (24)" type="4" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" odcFile="C:\Users\jaher\Downloads\excel (34).iqy" name="excel (34)" type="4" refreshedVersion="6" background="1" saveData="1">
     <webPr consecutive="1" xl2000="1" url="http://localhost:2468/Non+Project/PSP+Fundamentals+%26+Advanced/Program+4/+/reports/defectlog.class?EXPORT=excel" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Proyecto/Tarea</t>
   </si>
@@ -77,10 +77,22 @@
     <t>Design</t>
   </si>
   <si>
+    <t>Design Review</t>
+  </si>
+  <si>
+    <t>EliminaciÃ³n de un mÃ©todo que no fue necesario implementar.</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
     <t>Code</t>
   </si>
   <si>
-    <t>EliminaciÃ³n de un mÃ©todo que no fue necesario implementar.</t>
+    <t>Code Review</t>
+  </si>
+  <si>
+    <t>Incorrecta identaciÃ³n de los mÃ©todos de la clase Measuring.</t>
   </si>
 </sst>
 </file>
@@ -664,7 +676,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (24)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="excel (34)" preserveFormatting="0" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -964,7 +976,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -973,9 +985,9 @@
     <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -1049,6 +1061,37 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
